--- a/Latest Covid-19 India Status Dashboard.xlsx
+++ b/Latest Covid-19 India Status Dashboard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dipanshu\Downloads\archive (1)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dipanshu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,9 +23,8 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
@@ -899,8 +898,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -981,8 +979,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1044,6 +1041,222 @@
             </c:ext>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1784,47 +1997,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2101,11 +2273,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="3244784"/>
-        <c:axId val="3235536"/>
+        <c:axId val="2021989344"/>
+        <c:axId val="2021990432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="3244784"/>
+        <c:axId val="2021989344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,7 +2322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3235536"/>
+        <c:crossAx val="2021990432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2158,7 +2330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3235536"/>
+        <c:axId val="2021990432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,7 +2381,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3244784"/>
+        <c:crossAx val="2021989344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2414,61 +2586,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF">
-                <a:alpha val="90000"/>
-              </a:sysClr>
-            </a:solidFill>
-            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="5B9BD5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:srgbClr val="5B9BD5">
-                  <a:lumMod val="75000"/>
-                  <a:alpha val="40000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -2491,61 +2608,1374 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF">
-                <a:alpha val="90000"/>
-              </a:sysClr>
-            </a:solidFill>
-            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:srgbClr val="ED7D31">
-                  <a:lumMod val="75000"/>
-                  <a:alpha val="40000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="47"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="49"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="50"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="52"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="53"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="54"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="55"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="56"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="57"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="58"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="59"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="60"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="61"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="62"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="63"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="64"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="65"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="66"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="67"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="68"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="69"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="70"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="71"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="72"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="73"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -4812,8 +6242,21 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Total Deaths Per State/UTs</a:t>
+              <a:t>Total Discharged</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Cases</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7855,64 +9298,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:pattFill prst="pct75">
-              <a:fgClr>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:sysClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="40000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="151"/>
@@ -10254,11 +11639,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="504432400"/>
-        <c:axId val="504432944"/>
+        <c:axId val="2021986624"/>
+        <c:axId val="2021997504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="504432400"/>
+        <c:axId val="2021986624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10303,7 +11688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504432944"/>
+        <c:crossAx val="2021997504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10311,7 +11696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="504432944"/>
+        <c:axId val="2021997504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10362,7 +11747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504432400"/>
+        <c:crossAx val="2021986624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11464,6 +12849,78 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="33"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -15657,8 +17114,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="State/UTs"/>
@@ -15675,7 +17132,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -15834,8 +17291,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="State/UTs 1"/>
@@ -15852,7 +17309,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -16650,7 +18107,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
   <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -16744,7 +18201,7 @@
     <dataField name="Sum of Active" fld="2" baseField="0" baseItem="0"/>
     <dataField name="Sum of Total Cases" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="40">
+  <chartFormats count="56">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -17185,6 +18642,198 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="22" format="34">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="22" format="35">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="22" format="36">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="22" format="37">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -17200,7 +18849,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="25">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="25">
   <location ref="A3:B40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -17846,7 +19495,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:C40" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -18071,7 +19720,7 @@
     <dataField name="Sum of Total Cases" fld="1" baseField="0" baseItem="0"/>
     <dataField name="Sum of Discharged" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="74">
     <chartFormat chart="2" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -18086,6 +19735,870 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="26"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="30">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="28"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="31">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="29"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="32">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="30"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="33">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="31"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="34">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="32"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="35">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="33"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="36">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="34"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="37">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="35"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="38">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="39">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="40">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="41">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="42">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="43">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="44">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="45">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="46">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="47">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="48">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="49">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="56">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="57">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="58">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="59">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="60">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="61">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="62">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="63">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="64">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="26"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="65">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="66">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="28"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="67">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="29"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="68">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="30"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="69">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="31"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="70">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="32"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="71">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="33"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="72">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="34"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="73">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="35"/>
           </reference>
         </references>
       </pivotArea>
@@ -18101,7 +20614,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
